--- a/data_output/prism_passive/all_passive_torque at 10deg.xlsx
+++ b/data_output/prism_passive/all_passive_torque at 10deg.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,130 +513,130 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>22.9425296734453</v>
+        <v>22.942529556627537</v>
       </c>
       <c r="C2">
-        <v>23.983048801949156</v>
+        <v>23.983048673819553</v>
       </c>
       <c r="D2">
-        <v>24.04217522026018</v>
+        <v>24.042175083202618</v>
       </c>
       <c r="E2">
-        <v>28.133203827090824</v>
+        <v>28.133203708987008</v>
       </c>
       <c r="F2">
-        <v>29.978182271690411</v>
+        <v>29.978182050977026</v>
       </c>
       <c r="G2">
-        <v>33.723327369112269</v>
+        <v>33.723327220466345</v>
       </c>
       <c r="H2">
-        <v>35.786641265076966</v>
+        <v>35.786641053973639</v>
       </c>
       <c r="I2">
-        <v>37.075421050570618</v>
+        <v>37.075420872895307</v>
       </c>
       <c r="J2">
-        <v>32.882406975045093</v>
+        <v>32.882406804320624</v>
       </c>
       <c r="K2">
-        <v>34.333237753647815</v>
+        <v>34.333237540004681</v>
       </c>
       <c r="L2">
-        <v>20.993079105682721</v>
+        <v>20.993079009432851</v>
       </c>
       <c r="N2">
-        <v>31.242266554319603</v>
+        <v>31.242266362253023</v>
       </c>
       <c r="O2">
-        <v>18.707980755923174</v>
+        <v>18.707980689354002</v>
       </c>
       <c r="P2">
-        <v>45.037310676554682</v>
+        <v>45.037310226760596</v>
       </c>
       <c r="Q2">
-        <v>26.963170095417937</v>
+        <v>26.963169995203213</v>
       </c>
       <c r="S2">
-        <v>75.376291191863231</v>
+        <v>75.376290697281902</v>
       </c>
       <c r="V2">
-        <v>50.283330636557956</v>
+        <v>50.283330398419608</v>
       </c>
       <c r="W2">
-        <v>26.303713259796623</v>
+        <v>26.303713123825943</v>
       </c>
       <c r="X2">
-        <v>20.08931085522218</v>
+        <v>20.08931070065745</v>
       </c>
       <c r="AA2">
-        <v>29.007338848946148</v>
+        <v>29.007338699212973</v>
       </c>
       <c r="AB2">
-        <v>15.995931926380591</v>
+        <v>15.99593186505944</v>
       </c>
       <c r="AC2">
-        <v>18.775295874728833</v>
+        <v>18.775295752664228</v>
       </c>
       <c r="AD2">
-        <v>15.331492162896307</v>
+        <v>15.331492102812783</v>
       </c>
       <c r="AE2">
-        <v>18.945330447459643</v>
+        <v>18.945330324904976</v>
       </c>
       <c r="AF2">
-        <v>36.704098715307978</v>
+        <v>36.704098462635173</v>
       </c>
       <c r="AG2">
-        <v>20.537406669851485</v>
+        <v>20.537406575988221</v>
       </c>
       <c r="AH2">
-        <v>32.163096083667845</v>
+        <v>32.163095918956323</v>
       </c>
       <c r="AI2">
-        <v>31.429777077324083</v>
+        <v>31.429776966443487</v>
       </c>
       <c r="AJ2">
-        <v>45.459899278533861</v>
+        <v>45.459899020147922</v>
       </c>
       <c r="AK2">
-        <v>18.264672898199162</v>
+        <v>18.264672822847839</v>
       </c>
       <c r="AL2">
-        <v>39.978003680752387</v>
+        <v>39.978003525588235</v>
       </c>
       <c r="AM2">
-        <v>39.860895302942765</v>
+        <v>39.860895127699422</v>
       </c>
       <c r="AN2">
-        <v>18.456632588103083</v>
+        <v>18.456632544016269</v>
       </c>
       <c r="AO2">
-        <v>33.936295474320652</v>
+        <v>33.93629531230313</v>
       </c>
       <c r="AQ2">
-        <v>34.913184742055059</v>
+        <v>34.913184648911283</v>
       </c>
       <c r="AR2">
-        <v>50.175260420642005</v>
+        <v>50.1752600110553</v>
       </c>
       <c r="AS2">
-        <v>40.884296709095771</v>
+        <v>40.884296542083405</v>
       </c>
       <c r="AU2">
-        <v>50.088959611231552</v>
+        <v>50.088959364827943</v>
       </c>
       <c r="AV2">
-        <v>19.442441750759112</v>
+        <v>19.442441677070981</v>
       </c>
       <c r="AW2">
-        <v>15.233025382210405</v>
+        <v>15.233025301890807</v>
       </c>
       <c r="AX2">
-        <v>22.607174161243748</v>
+        <v>22.607174077287354</v>
       </c>
       <c r="AY2">
-        <v>17.97117729712437</v>
+        <v>17.971177193797505</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -649,121 +644,121 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>27.428596171766806</v>
+        <v>27.428596025235297</v>
       </c>
       <c r="C3">
-        <v>20.463801572184931</v>
+        <v>20.463801479697128</v>
       </c>
       <c r="E3">
-        <v>56.864002007023494</v>
+        <v>56.864001633110519</v>
       </c>
       <c r="F3">
-        <v>15.967740079091675</v>
+        <v>15.967740024064295</v>
       </c>
       <c r="G3">
-        <v>39.378451990325864</v>
+        <v>39.378451818634488</v>
       </c>
       <c r="H3">
-        <v>39.191371978928615</v>
+        <v>39.191371720497976</v>
       </c>
       <c r="J3">
-        <v>28.727259315697108</v>
+        <v>28.727259132986809</v>
       </c>
       <c r="K3">
-        <v>40.915205193882365</v>
+        <v>40.915205010598015</v>
       </c>
       <c r="L3">
-        <v>32.969916685232981</v>
+        <v>32.969916516916385</v>
       </c>
       <c r="M3">
-        <v>47.379354526888591</v>
+        <v>47.381931052015695</v>
       </c>
       <c r="N3">
-        <v>39.692207133370601</v>
+        <v>39.692206937935886</v>
       </c>
       <c r="P3">
-        <v>51.45434251530245</v>
+        <v>51.454342061008987</v>
       </c>
       <c r="Q3">
-        <v>31.806510298935592</v>
+        <v>31.806510156393781</v>
       </c>
       <c r="R3">
-        <v>26.846326031346642</v>
+        <v>26.84632592125778</v>
       </c>
       <c r="W3">
-        <v>25.843195858805657</v>
+        <v>25.843195681779211</v>
       </c>
       <c r="AA3">
-        <v>24.239250770809182</v>
+        <v>24.239250693400272</v>
       </c>
       <c r="AB3">
-        <v>17.661102192144227</v>
+        <v>17.661102112570063</v>
       </c>
       <c r="AC3">
-        <v>18.15031450800323</v>
+        <v>18.150314432310694</v>
       </c>
       <c r="AD3">
-        <v>26.145910036537479</v>
+        <v>26.145909908170438</v>
       </c>
       <c r="AE3">
-        <v>14.887054998553754</v>
+        <v>14.887054934496266</v>
       </c>
       <c r="AF3">
-        <v>27.462912648005219</v>
+        <v>27.462912482094804</v>
       </c>
       <c r="AG3">
-        <v>22.180753460349884</v>
+        <v>22.180753305494026</v>
       </c>
       <c r="AH3">
-        <v>35.320642416004858</v>
+        <v>35.320642318592974</v>
       </c>
       <c r="AI3">
-        <v>22.410790260646547</v>
+        <v>22.410790156480875</v>
       </c>
       <c r="AJ3">
-        <v>45.733302276455085</v>
+        <v>45.733302069469218</v>
       </c>
       <c r="AK3">
-        <v>21.28746272536894</v>
+        <v>21.287462646839138</v>
       </c>
       <c r="AL3">
-        <v>35.381008349917295</v>
+        <v>35.381008129406389</v>
       </c>
       <c r="AM3">
-        <v>44.058656100257885</v>
+        <v>44.058655893176692</v>
       </c>
       <c r="AN3">
-        <v>18.874203554036182</v>
+        <v>18.874203485716464</v>
       </c>
       <c r="AO3">
-        <v>39.485740595609848</v>
+        <v>39.48574035643616</v>
       </c>
       <c r="AP3">
-        <v>27.536642835982953</v>
+        <v>27.536642741647547</v>
       </c>
       <c r="AQ3">
-        <v>24.544381672442345</v>
+        <v>24.544381583624471</v>
       </c>
       <c r="AS3">
-        <v>33.818839815008793</v>
+        <v>33.818839682676796</v>
       </c>
       <c r="AT3">
-        <v>17.030734889013523</v>
+        <v>17.030734821682561</v>
       </c>
       <c r="AU3">
-        <v>47.438799794990459</v>
+        <v>47.438799587119505</v>
       </c>
       <c r="AV3">
-        <v>19.160336609846532</v>
+        <v>19.160336545062041</v>
       </c>
       <c r="AW3">
-        <v>17.479572659440116</v>
+        <v>17.479572583228585</v>
       </c>
       <c r="AX3">
-        <v>30.188423471828187</v>
+        <v>30.188423355430505</v>
       </c>
       <c r="AY3">
-        <v>28.498295140030578</v>
+        <v>28.498294947365107</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_torque at 10deg.xlsx
+++ b/data_output/prism_passive/all_passive_torque at 10deg.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,53 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>22.942529556627537</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>23.983048673819553</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>24.042175083202618</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>28.133203708987008</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>29.978182050977026</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>33.723327220466345</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>35.786641053973639</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>37.075420872895307</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>32.882406804320624</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>34.333237540004681</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>20.993079009432851</v>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>31.242266362253023</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>18.707980689354002</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>45.037310226760596</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>26.963169995203213</v>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
       </c>
       <c r="S2">
         <v>75.376290697281902</v>
@@ -570,52 +465,55 @@
         <v>20.08931070065745</v>
       </c>
       <c r="AA2">
-        <v>29.007338699212973</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>15.99593186505944</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>18.775295752664228</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>15.331492102812783</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>18.945330324904976</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>36.704098462635173</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>20.537406575988221</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>32.163095918956323</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>31.429776966443487</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>45.459899020147922</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>18.264672822847839</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>39.978003525588235</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>39.860895127699422</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>18.456632544016269</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>33.93629531230313</v>
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>34.913184648911283</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>50.1752600110553</v>
@@ -640,104 +538,110 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>27.428596025235297</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>20.463801479697128</v>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>56.864001633110519</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>15.967740024064295</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>39.378451818634488</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>39.191371720497976</v>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>28.727259132986809</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>40.915205010598015</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>32.969916516916385</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>47.381931052015695</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>39.692206937935886</v>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>51.454342061008987</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>31.806510156393781</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>26.84632592125778</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>25.843195681779211</v>
       </c>
       <c r="AA3">
-        <v>24.239250693400272</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>17.661102112570063</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>18.150314432310694</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>26.145909908170438</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>14.887054934496266</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>27.462912482094804</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>22.180753305494026</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>35.320642318592974</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>22.410790156480875</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>45.733302069469218</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>21.287462646839138</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>35.381008129406389</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>44.058655893176692</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>18.874203485716464</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>39.48574035643616</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>27.536642741647547</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>24.544381583624471</v>
+        <v>0</v>
       </c>
       <c r="AS3">
         <v>33.818839682676796</v>

--- a/data_output/prism_passive/all_passive_torque at 10deg.xlsx
+++ b/data_output/prism_passive/all_passive_torque at 10deg.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>24.038430894083024</v>
-      </c>
-      <c r="C2">
-        <v>25.133839058623852</v>
+        <v>19.601292356545368</v>
       </c>
       <c r="D2">
-        <v>25.188970930138918</v>
+        <v>19.33729482102439</v>
       </c>
       <c r="E2">
-        <v>29.479780999729059</v>
+        <v>36.578736032412017</v>
       </c>
       <c r="F2">
         <v>31.411468219204295</v>
@@ -648,14 +640,14 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>28.733294204200259</v>
-      </c>
       <c r="C3">
-        <v>21.438254243615841</v>
+        <v>28.126888271470293</v>
+      </c>
+      <c r="D3">
+        <v>19.770471625496249</v>
       </c>
       <c r="E3">
-        <v>59.581471742637866</v>
+        <v>24.433638921131998</v>
       </c>
       <c r="F3">
         <v>16.729553682940743</v>

--- a/data_output/prism_passive/all_passive_torque at 10deg.xlsx
+++ b/data_output/prism_passive/all_passive_torque at 10deg.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>24.038430894083024</v>
+        <v>32.732603979103764</v>
       </c>
       <c r="C2">
-        <v>25.133839058623852</v>
+        <v>19.601292356545368</v>
       </c>
       <c r="D2">
-        <v>25.188970930138918</v>
+        <v>41.760294497667765</v>
       </c>
       <c r="E2">
-        <v>29.479780999729059</v>
+        <v>19.33729482102439</v>
       </c>
       <c r="F2">
         <v>31.411468219204295</v>
@@ -649,13 +644,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>28.733294204200259</v>
-      </c>
-      <c r="C3">
-        <v>21.438254243615841</v>
+        <v>41.588172274856113</v>
+      </c>
+      <c r="D3">
+        <v>46.157665783114361</v>
       </c>
       <c r="E3">
-        <v>59.581471742637866</v>
+        <v>19.770471625496249</v>
       </c>
       <c r="F3">
         <v>16.729553682940743</v>

--- a/data_output/prism_passive/all_passive_torque at 10deg.xlsx
+++ b/data_output/prism_passive/all_passive_torque at 10deg.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,130 +513,130 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>24.03843077155403</v>
+      </c>
+      <c r="C2">
+        <v>25.133838924303518</v>
+      </c>
+      <c r="D2">
+        <v>25.188970786597576</v>
+      </c>
+      <c r="E2">
+        <v>29.479780876038941</v>
+      </c>
+      <c r="F2">
+        <v>31.411467988077831</v>
+      </c>
+      <c r="G2">
+        <v>35.333980596071967</v>
+      </c>
+      <c r="H2">
+        <v>37.494264308347873</v>
+      </c>
+      <c r="I2">
+        <v>38.843567410668719</v>
+      </c>
+      <c r="J2">
+        <v>34.451590977865209</v>
+      </c>
+      <c r="K2">
+        <v>35.969278314012293</v>
+      </c>
+      <c r="L2">
+        <v>21.994226211812531</v>
+      </c>
+      <c r="N2">
         <v>32.732603979103764</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>19.601292356545368</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>47.188739261307767</v>
+      </c>
+      <c r="Q2">
+        <v>28.249625578774126</v>
+      </c>
+      <c r="S2">
+        <v>78.958287006979688</v>
+      </c>
+      <c r="V2">
+        <v>52.679917596269831</v>
+      </c>
+      <c r="W2">
+        <v>27.556530947307408</v>
+      </c>
+      <c r="X2">
+        <v>21.049992951292253</v>
+      </c>
+      <c r="AA2">
+        <v>30.394295981512869</v>
+      </c>
+      <c r="AB2">
+        <v>16.758854034308573</v>
+      </c>
+      <c r="AC2">
+        <v>19.672214381884714</v>
+      </c>
+      <c r="AD2">
+        <v>16.063447840985784</v>
+      </c>
+      <c r="AE2">
+        <v>19.84336323331565</v>
+      </c>
+      <c r="AF2">
+        <v>38.454585670232305</v>
+      </c>
+      <c r="AG2">
+        <v>21.516028313240508</v>
+      </c>
+      <c r="AH2">
+        <v>33.698937308477554</v>
+      </c>
+      <c r="AI2">
+        <v>32.927811469692422</v>
+      </c>
+      <c r="AJ2">
+        <v>47.636197830008179</v>
+      </c>
+      <c r="AK2">
+        <v>19.13610656297271</v>
+      </c>
+      <c r="AL2">
+        <v>41.888035600846671</v>
+      </c>
+      <c r="AM2">
         <v>41.760294497667765</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>19.33729482102439</v>
       </c>
-      <c r="F2">
-        <v>31.411468219204295</v>
-      </c>
-      <c r="G2">
-        <v>35.333980751757515</v>
-      </c>
-      <c r="H2">
-        <v>37.494264529875586</v>
-      </c>
-      <c r="I2">
-        <v>38.843567597698112</v>
-      </c>
-      <c r="J2">
-        <v>34.451591156638933</v>
-      </c>
-      <c r="K2">
-        <v>35.969278538071713</v>
-      </c>
-      <c r="L2">
-        <v>21.994226312659411</v>
-      </c>
-      <c r="N2">
-        <v>32.732604180026634</v>
-      </c>
-      <c r="O2">
-        <v>19.601292425742855</v>
-      </c>
-      <c r="P2">
-        <v>47.188739733380459</v>
-      </c>
-      <c r="Q2">
-        <v>28.249625683975655</v>
-      </c>
-      <c r="S2">
-        <v>78.958287517883221</v>
-      </c>
-      <c r="V2">
-        <v>52.679917845999647</v>
-      </c>
-      <c r="W2">
-        <v>27.556531089545292</v>
-      </c>
-      <c r="X2">
-        <v>21.049993112846447</v>
-      </c>
-      <c r="AA2">
-        <v>30.394296138090681</v>
-      </c>
-      <c r="AB2">
-        <v>16.758854098444228</v>
-      </c>
-      <c r="AC2">
-        <v>19.672214509801396</v>
-      </c>
-      <c r="AD2">
-        <v>16.063447903863068</v>
-      </c>
-      <c r="AE2">
-        <v>19.843363361306483</v>
-      </c>
-      <c r="AF2">
-        <v>38.454585935259978</v>
-      </c>
-      <c r="AG2">
-        <v>21.51602841171405</v>
-      </c>
-      <c r="AH2">
-        <v>33.698937480592164</v>
-      </c>
-      <c r="AI2">
-        <v>32.927811586178173</v>
-      </c>
-      <c r="AJ2">
-        <v>47.636198100555646</v>
-      </c>
-      <c r="AK2">
-        <v>19.136106641742856</v>
-      </c>
-      <c r="AL2">
-        <v>41.888035763742074</v>
-      </c>
-      <c r="AM2">
-        <v>41.760294681450354</v>
-      </c>
-      <c r="AN2">
-        <v>19.337294867462429</v>
-      </c>
       <c r="AO2">
-        <v>35.556174997239843</v>
+        <v>35.556174827637101</v>
       </c>
       <c r="AQ2">
-        <v>36.578736130360191</v>
+        <v>36.578736032412017</v>
       </c>
       <c r="AR2">
-        <v>52.571573681704415</v>
+        <v>52.571573252313812</v>
       </c>
       <c r="AS2">
-        <v>42.837250631288079</v>
+        <v>42.837250456056431</v>
       </c>
       <c r="AU2">
-        <v>52.478008219737298</v>
+        <v>52.478007962173272</v>
       </c>
       <c r="AV2">
-        <v>20.369090974585127</v>
+        <v>20.369090897031814</v>
       </c>
       <c r="AW2">
-        <v>15.958731119610674</v>
+        <v>15.958731035392207</v>
       </c>
       <c r="AX2">
-        <v>23.687971188707355</v>
+        <v>23.687971100831799</v>
       </c>
       <c r="AY2">
-        <v>18.82888212270916</v>
+        <v>18.828882014527959</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -644,121 +644,121 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>28.73329405075167</v>
+      </c>
+      <c r="C3">
+        <v>21.438254146732572</v>
+      </c>
+      <c r="E3">
+        <v>59.581471357442489</v>
+      </c>
+      <c r="F3">
+        <v>16.729553625414571</v>
+      </c>
+      <c r="G3">
+        <v>41.265991971037145</v>
+      </c>
+      <c r="H3">
+        <v>41.06568220741908</v>
+      </c>
+      <c r="J3">
+        <v>30.097116989678085</v>
+      </c>
+      <c r="K3">
+        <v>42.86057515169076</v>
+      </c>
+      <c r="L3">
+        <v>34.546397852454973</v>
+      </c>
+      <c r="M3">
+        <v>49.640729348907065</v>
+      </c>
+      <c r="N3">
         <v>41.588172274856113</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>53.911523296196798</v>
+      </c>
+      <c r="Q3">
+        <v>33.322657115884908</v>
+      </c>
+      <c r="R3">
+        <v>28.126888271470293</v>
+      </c>
+      <c r="W3">
+        <v>27.188254228110839</v>
+      </c>
+      <c r="AA3">
+        <v>25.39490741216979</v>
+      </c>
+      <c r="AB3">
+        <v>18.504331825794367</v>
+      </c>
+      <c r="AC3">
+        <v>19.017619762062711</v>
+      </c>
+      <c r="AD3">
+        <v>27.382768000028609</v>
+      </c>
+      <c r="AE3">
+        <v>15.602568309945388</v>
+      </c>
+      <c r="AF3">
+        <v>28.777185206313163</v>
+      </c>
+      <c r="AG3">
+        <v>23.24162253135222</v>
+      </c>
+      <c r="AH3">
+        <v>31.224103089673189</v>
+      </c>
+      <c r="AI3">
+        <v>23.483051028135936</v>
+      </c>
+      <c r="AJ3">
+        <v>47.922965939813103</v>
+      </c>
+      <c r="AK3">
+        <v>22.302969054688315</v>
+      </c>
+      <c r="AL3">
+        <v>37.069419122287577</v>
+      </c>
+      <c r="AM3">
         <v>46.157665783114361</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>19.770471625496249</v>
       </c>
-      <c r="F3">
-        <v>16.729553682940743</v>
-      </c>
-      <c r="G3">
-        <v>41.265992149705163</v>
-      </c>
-      <c r="H3">
-        <v>41.065682478139159</v>
-      </c>
-      <c r="J3">
-        <v>30.097117181817648</v>
-      </c>
-      <c r="K3">
-        <v>42.860575344946305</v>
-      </c>
-      <c r="L3">
-        <v>34.546398028595114</v>
-      </c>
-      <c r="M3">
-        <v>49.638038684497594</v>
-      </c>
-      <c r="N3">
-        <v>41.588172480103395</v>
-      </c>
-      <c r="P3">
-        <v>53.911523771874378</v>
-      </c>
-      <c r="Q3">
-        <v>33.322657265882363</v>
-      </c>
-      <c r="R3">
-        <v>28.126888387012048</v>
-      </c>
-      <c r="W3">
-        <v>27.188254407249122</v>
-      </c>
-      <c r="AA3">
-        <v>25.394907493444553</v>
-      </c>
-      <c r="AB3">
-        <v>18.50433190914331</v>
-      </c>
-      <c r="AC3">
-        <v>19.017619841593916</v>
-      </c>
-      <c r="AD3">
-        <v>27.382768133498473</v>
-      </c>
-      <c r="AE3">
-        <v>15.602568377070298</v>
-      </c>
-      <c r="AF3">
-        <v>28.777185379739723</v>
-      </c>
-      <c r="AG3">
-        <v>23.241622693686594</v>
-      </c>
-      <c r="AH3">
-        <v>31.22410318268005</v>
-      </c>
-      <c r="AI3">
-        <v>23.483051137278625</v>
-      </c>
-      <c r="AJ3">
-        <v>47.922966157482904</v>
-      </c>
-      <c r="AK3">
-        <v>22.302969137035245</v>
-      </c>
-      <c r="AL3">
-        <v>37.069419353254212</v>
-      </c>
-      <c r="AM3">
-        <v>46.157666000373162</v>
-      </c>
-      <c r="AN3">
-        <v>19.770471697179687</v>
-      </c>
       <c r="AO3">
-        <v>41.369845625818478</v>
+        <v>41.369845376012641</v>
       </c>
       <c r="AP3">
-        <v>28.849539252432791</v>
+        <v>28.849539153480908</v>
       </c>
       <c r="AQ3">
-        <v>24.433639015874206</v>
+        <v>24.433638921131998</v>
       </c>
       <c r="AS3">
-        <v>35.430980857308789</v>
+        <v>35.430980719068209</v>
       </c>
       <c r="AT3">
-        <v>17.843928226868822</v>
+        <v>17.843928156276636</v>
       </c>
       <c r="AU3">
-        <v>49.701716159441979</v>
+        <v>49.701715941667409</v>
       </c>
       <c r="AV3">
-        <v>20.069495370838208</v>
+        <v>20.069495302571859</v>
       </c>
       <c r="AW3">
-        <v>18.313573507328098</v>
+        <v>18.313573427448375</v>
       </c>
       <c r="AX3">
-        <v>31.627202189917512</v>
+        <v>31.627202067899116</v>
       </c>
       <c r="AY3">
-        <v>29.860775648021331</v>
+        <v>29.860775445804592</v>
       </c>
     </row>
   </sheetData>
